--- a/PID.xlsx
+++ b/PID.xlsx
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D22"/>
+  <dimension ref="B1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -479,6 +479,30 @@
       </c>
       <c r="D22">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24">
+        <v>2.8</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25">
+        <v>2.6</v>
+      </c>
+      <c r="D25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26">
+        <v>0.01</v>
+      </c>
+      <c r="D26">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/PID.xlsx
+++ b/PID.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Theta</t>
+    <t>POSI</t>
   </si>
   <si>
-    <t>Velo</t>
+    <t>VELO</t>
+  </si>
+  <si>
+    <t>THETA</t>
   </si>
 </sst>
 </file>
@@ -354,155 +357,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:D26"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <v>1.8</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0.02</v>
+      </c>
+      <c r="B3">
+        <v>0.4</v>
+      </c>
+      <c r="C3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4">
-      <c r="B2">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="D2">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3">
-        <v>1.77E-2</v>
-      </c>
-      <c r="D3">
-        <v>9.7500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4">
-        <v>1.57E-3</v>
-      </c>
-      <c r="D4">
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6">
-        <v>0.38546000000000002</v>
-      </c>
-      <c r="D6">
-        <v>0.51224999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7">
-        <v>2.4150000000000001E-2</v>
-      </c>
-      <c r="D7">
-        <v>9.7780000000000006E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8">
-        <v>1.6199999999999999E-3</v>
-      </c>
-      <c r="D8">
-        <v>0.27505000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11">
-        <v>0.19001000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12">
-        <v>2.051E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13">
-        <v>1.1010000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15">
-        <v>0.26729000000000003</v>
-      </c>
-      <c r="D15">
-        <v>0.52800000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16">
-        <v>3.3399999999999999E-2</v>
-      </c>
-      <c r="D16">
-        <v>0.13250000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17">
-        <v>3.3300000000000001E-3</v>
-      </c>
-      <c r="D17">
-        <v>0.52800000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20">
-        <v>1.2</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21">
-        <v>1.45</v>
-      </c>
-      <c r="D21">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D22">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24">
-        <v>2.8</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25">
-        <v>2.6</v>
-      </c>
-      <c r="D25">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26">
-        <v>0.01</v>
-      </c>
-      <c r="D26">
-        <v>0.4</v>
       </c>
     </row>
   </sheetData>
